--- a/BackTest/2020-01-12 BackTest FX.xlsx
+++ b/BackTest/2020-01-12 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-134540.9908</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-202917.1003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-207524.6377000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-218368.5824</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-218368.5824</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-234950.4797000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-234933.2654000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-234925.2268000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-250774.9583000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-250794.6712000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-210791.9127000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-257393.8127000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-276767.1944000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-316639.0663000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,22 +1177,15 @@
         <v>-319485.8875000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="K24" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1288,24 +1210,15 @@
         <v>-352329.5539000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1330,26 +1243,15 @@
         <v>-406385.5539000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>60.03</v>
-      </c>
-      <c r="K26" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,26 +1276,15 @@
         <v>-383825.6861</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>60</v>
-      </c>
-      <c r="K27" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1418,26 +1309,15 @@
         <v>-383635.6861</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1462,26 +1342,15 @@
         <v>-393636.3683</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>61.03</v>
-      </c>
-      <c r="K29" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1506,26 +1375,15 @@
         <v>-393636.3683</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1550,26 +1408,19 @@
         <v>-390859.5346</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>60.2</v>
       </c>
       <c r="J31" t="n">
         <v>60.2</v>
       </c>
-      <c r="K31" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1594,26 +1445,23 @@
         <v>-391847.5346</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="J32" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>60.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1638,26 +1486,21 @@
         <v>-387819.5346</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>60.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1682,26 +1525,15 @@
         <v>-387819.5346</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>61.03</v>
-      </c>
-      <c r="K34" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1726,26 +1558,15 @@
         <v>-387819.5346</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>61.03</v>
-      </c>
-      <c r="K35" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1770,26 +1591,15 @@
         <v>-381865.4051</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>61.03</v>
-      </c>
-      <c r="K36" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1814,26 +1624,15 @@
         <v>-376809.8081</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1858,26 +1657,15 @@
         <v>-376809.8081</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1902,26 +1690,15 @@
         <v>-376799.8081</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1946,26 +1723,15 @@
         <v>-376881.6491</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>61.59</v>
-      </c>
-      <c r="K40" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1990,26 +1756,15 @@
         <v>-376745.6530696104</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>61.03</v>
-      </c>
-      <c r="K41" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2036,22 +1791,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2078,22 +1824,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2120,22 +1857,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2162,22 +1890,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2204,22 +1923,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2246,22 +1956,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2288,22 +1989,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2330,22 +2022,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2372,22 +2055,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2412,26 +2086,19 @@
         <v>-376432.4358696618</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>60.84</v>
       </c>
       <c r="J51" t="n">
         <v>60.84</v>
       </c>
-      <c r="K51" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2456,26 +2123,23 @@
         <v>-372703.9583696618</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>60.85</v>
       </c>
       <c r="J52" t="n">
-        <v>60.85</v>
-      </c>
-      <c r="K52" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>60.84</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2502,22 +2166,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2544,22 +2205,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2586,22 +2238,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2628,22 +2271,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2670,22 +2304,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2712,22 +2337,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2752,26 +2368,19 @@
         <v>-447900.5428334239</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>60.86</v>
       </c>
       <c r="J59" t="n">
         <v>60.86</v>
       </c>
-      <c r="K59" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2796,24 +2405,23 @@
         <v>-447900.5428334239</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>62.2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>60.86</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2840,22 +2448,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>60.86</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2880,26 +2485,15 @@
         <v>-447911.5428334239</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2924,26 +2518,15 @@
         <v>-447903.4428334239</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>61</v>
-      </c>
-      <c r="K63" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2968,26 +2551,19 @@
         <v>-449201.6928334239</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>62.2</v>
       </c>
       <c r="J64" t="n">
         <v>62.2</v>
       </c>
-      <c r="K64" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3014,22 +2590,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3054,24 +2627,23 @@
         <v>-444494.6854334239</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>62.09</v>
+      </c>
+      <c r="J66" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3096,24 +2668,23 @@
         <v>-599476.6483334239</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>62.1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3140,22 +2711,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3182,22 +2750,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3224,22 +2789,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3264,26 +2826,21 @@
         <v>-598699.6483334239</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>60.87</v>
-      </c>
-      <c r="K71" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L71" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3308,26 +2865,23 @@
         <v>-598690.6483334239</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J72" t="n">
-        <v>61</v>
-      </c>
-      <c r="K72" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3352,26 +2906,23 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="J73" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K73" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3396,26 +2947,23 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J74" t="n">
-        <v>61</v>
-      </c>
-      <c r="K74" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3440,26 +2988,23 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J75" t="n">
-        <v>61</v>
-      </c>
-      <c r="K75" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3484,26 +3029,21 @@
         <v>-597671.9730334239</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>61</v>
-      </c>
-      <c r="K76" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L76" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3530,22 +3070,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3572,22 +3109,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3612,26 +3146,21 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K79" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3656,26 +3185,21 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K80" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3700,26 +3224,21 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K81" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3744,26 +3263,21 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3788,26 +3302,23 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>62.09</v>
       </c>
       <c r="J83" t="n">
-        <v>62.09</v>
-      </c>
-      <c r="K83" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3834,22 +3345,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3876,22 +3384,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3916,26 +3421,23 @@
         <v>-598339.8481334238</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="J86" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L86" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3960,26 +3462,21 @@
         <v>-600347.9661334238</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>61.11</v>
-      </c>
-      <c r="K87" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L87" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4004,26 +3501,21 @@
         <v>-596272.6503334239</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K88" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4048,26 +3540,21 @@
         <v>-591470.0510334239</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>61.11</v>
-      </c>
-      <c r="K89" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L89" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4092,26 +3579,21 @@
         <v>-609437.6949334239</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="K90" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L90" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4136,26 +3618,21 @@
         <v>-608752.7568334239</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="K91" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L91" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4180,26 +3657,21 @@
         <v>-608752.7568334239</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>61.89</v>
-      </c>
-      <c r="K92" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4226,22 +3698,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4268,22 +3737,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4310,22 +3776,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4352,22 +3815,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4394,22 +3854,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4436,22 +3893,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4476,26 +3930,21 @@
         <v>-611101.0767334239</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4520,26 +3969,21 @@
         <v>-611101.0767334239</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>61.99</v>
-      </c>
-      <c r="K100" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4566,22 +4010,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4608,22 +4049,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4650,22 +4088,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4690,24 +4125,23 @@
         <v>-603137.4490334239</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>62</v>
+      </c>
+      <c r="J104" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4734,22 +4168,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4774,24 +4205,23 @@
         <v>-591175.8695539343</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>62.69</v>
+      </c>
+      <c r="J106" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4818,22 +4248,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4860,22 +4287,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4902,22 +4326,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4944,22 +4365,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4986,24 +4404,21 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest FX.xlsx
+++ b/BackTest/2020-01-12 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-134540.9908</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-202917.1003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-202917.1003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-207532.6763000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-207524.6377000001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-218368.5824</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-218368.5824</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-234950.4797000001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-234933.2654000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-234925.2268000001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-250783.9583000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-250783.9583000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-250774.9583000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-250774.9583000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-250794.6712000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-210791.9127000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-224550.1464000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-257393.8127000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-276767.1944000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-316639.0663000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-321995.0473000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-352329.5539000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1408,14 +1408,10 @@
         <v>-390859.5346</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1445,19 +1441,11 @@
         <v>-391847.5346</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1489,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -2086,14 +2068,10 @@
         <v>-376432.4358696618</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="J51" t="n">
-        <v>60.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2123,19 +2101,11 @@
         <v>-372703.9583696618</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>60.85</v>
-      </c>
-      <c r="J52" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2167,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2368,14 +2332,10 @@
         <v>-447900.5428334239</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>60.86</v>
-      </c>
-      <c r="J59" t="n">
-        <v>60.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2405,19 +2365,11 @@
         <v>-447900.5428334239</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>60.86</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>60.86</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2551,14 +2497,10 @@
         <v>-449201.6928334239</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>62.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2591,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2627,19 +2563,11 @@
         <v>-444494.6854334239</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>62.09</v>
-      </c>
-      <c r="J66" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2668,19 +2596,11 @@
         <v>-599476.6483334239</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2712,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2751,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2790,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2865,19 +2761,15 @@
         <v>-598690.6483334239</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>61</v>
       </c>
       <c r="J72" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2906,17 +2798,17 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>62.1</v>
       </c>
       <c r="J73" t="n">
-        <v>62.2</v>
+        <v>61</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2947,17 +2839,15 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>61</v>
       </c>
-      <c r="J74" t="n">
-        <v>62.2</v>
-      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2988,19 +2878,15 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>61</v>
       </c>
       <c r="J75" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3029,15 +2915,17 @@
         <v>-597671.9730334239</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>61</v>
+      </c>
       <c r="J76" t="n">
-        <v>62.2</v>
+        <v>61</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3068,15 +2956,17 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>62.1</v>
+      </c>
       <c r="J77" t="n">
-        <v>62.2</v>
+        <v>61</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3107,17 +2997,15 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>61.1</v>
+      </c>
       <c r="J78" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61.1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3146,15 +3034,17 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>61.1</v>
+      </c>
       <c r="J79" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3185,15 +3075,17 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>61.1</v>
+      </c>
       <c r="J80" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3224,17 +3116,15 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>61.1</v>
+      </c>
       <c r="J81" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61.1</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3263,15 +3153,17 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>61.1</v>
+      </c>
       <c r="J82" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3302,17 +3194,17 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>62.09</v>
       </c>
       <c r="J83" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3346,14 +3238,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +3271,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3421,19 +3301,15 @@
         <v>-598339.8481334238</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>61.1</v>
       </c>
       <c r="J86" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61.1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3462,15 +3338,17 @@
         <v>-600347.9661334238</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>61.11</v>
+      </c>
       <c r="J87" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3501,11 +3379,13 @@
         <v>-596272.6503334239</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>61.1</v>
+      </c>
       <c r="J88" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3540,11 +3420,13 @@
         <v>-591470.0510334239</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>61.11</v>
+      </c>
       <c r="J89" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3579,11 +3461,13 @@
         <v>-609437.6949334239</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>61.9</v>
+      </c>
       <c r="J90" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3618,11 +3502,13 @@
         <v>-608752.7568334239</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>61.4</v>
+      </c>
       <c r="J91" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3661,7 +3547,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3700,7 +3586,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3739,7 +3625,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3778,7 +3664,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3817,7 +3703,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3856,7 +3742,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3895,7 +3781,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3934,7 +3820,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3973,7 +3859,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4012,7 +3898,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4051,7 +3937,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4090,7 +3976,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4125,13 +4011,11 @@
         <v>-603137.4490334239</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4170,7 +4054,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4205,13 +4089,11 @@
         <v>-591175.8695539343</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>62.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4250,7 +4132,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4289,7 +4171,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4328,7 +4210,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4367,7 +4249,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4406,7 +4288,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4419,6 +4301,6 @@
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest FX.xlsx
+++ b/BackTest/2020-01-12 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-202917.1003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-202917.1003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-207532.6763000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-207524.6377000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-218368.5824</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-218368.5824</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-234950.4797000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-234933.2654000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,10 +781,14 @@
         <v>-234925.2268000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>61.12</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +818,17 @@
         <v>-250783.9583000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +857,17 @@
         <v>-250783.9583000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,7 +896,7 @@
         <v>-250774.9583000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +929,7 @@
         <v>-250774.9583000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +962,7 @@
         <v>-250794.6712000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +995,7 @@
         <v>-210791.9127000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1028,7 @@
         <v>-224550.1464000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1061,7 @@
         <v>-257393.8127000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1094,7 @@
         <v>-276767.1944000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1127,7 @@
         <v>-316639.0663000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1160,7 @@
         <v>-321995.0473000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,10 +1193,14 @@
         <v>-319485.8875000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="J24" t="n">
+        <v>60.06</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1213,8 +1233,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1272,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1311,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1347,19 @@
         <v>-383635.6861</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1391,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1430,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1469,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1508,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1547,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1586,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1625,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1664,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1703,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1742,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1781,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1820,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1859,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1898,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1937,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1976,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2015,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2054,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2093,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2132,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2171,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2210,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2249,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2288,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2327,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2366,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2405,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2444,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2483,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2522,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2561,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2600,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2639,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2678,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2717,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2756,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2795,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2834,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2873,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2912,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2951,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2990,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3029,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,15 +3065,17 @@
         <v>-598690.6483334239</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>61</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>60.06</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,17 +3104,15 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>62.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>61</v>
+        <v>60.06</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2843,11 +3147,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>61</v>
+        <v>60.06</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2878,15 +3182,17 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>61</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+        <v>60.06</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2915,17 +3221,15 @@
         <v>-597671.9730334239</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>61</v>
+        <v>60.06</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2956,17 +3260,15 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>62.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>61</v>
+        <v>60.06</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -2997,15 +3299,17 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>61.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+        <v>60.06</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3034,17 +3338,15 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>61.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3075,17 +3377,15 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>61.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3116,15 +3416,17 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>61.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>60.06</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3153,17 +3455,15 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>61.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3194,17 +3494,15 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>62.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3238,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3271,8 +3575,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3301,15 +3611,17 @@
         <v>-598339.8481334238</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>61.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>60.06</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3338,17 +3650,15 @@
         <v>-600347.9661334238</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>61.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3379,13 +3689,11 @@
         <v>-596272.6503334239</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>61.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3420,13 +3728,11 @@
         <v>-591470.0510334239</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3461,13 +3767,11 @@
         <v>-609437.6949334239</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>61.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3502,13 +3806,11 @@
         <v>-608752.7568334239</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>61.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3547,7 +3849,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3586,7 +3888,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3621,19 +3923,19 @@
         <v>-603773.3684334238</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>61.1</v>
+        <v>60.06</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>1.027134532134532</v>
       </c>
       <c r="M94" t="inlineStr"/>
     </row>
@@ -3663,14 +3965,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3699,17 +3995,11 @@
         <v>-610392.3085334238</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3738,17 +4028,11 @@
         <v>-610291.9960334238</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3777,17 +4061,11 @@
         <v>-611109.8474334239</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3855,17 +4127,11 @@
         <v>-611101.0767334239</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3894,17 +4160,11 @@
         <v>-599471.5013334239</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3933,17 +4193,11 @@
         <v>-599471.5013334239</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3975,14 +4229,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4011,17 +4259,11 @@
         <v>-603137.4490334239</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4050,17 +4292,11 @@
         <v>-598183.8691334239</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4089,17 +4325,11 @@
         <v>-591175.8695539343</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4131,14 +4361,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4167,17 +4391,11 @@
         <v>-592177.8587539343</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4209,14 +4427,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +4460,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4284,23 +4490,21 @@
         <v>-632507.9417539343</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>62.01</v>
+      </c>
       <c r="J111" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>62.01</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest FX.xlsx
+++ b/BackTest/2020-01-12 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4615.576</v>
       </c>
       <c r="G2" t="n">
-        <v>-133694.9871</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>846.0037</v>
       </c>
       <c r="G3" t="n">
-        <v>-134540.9908</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>68376.10950000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-202917.1003</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>322.5417</v>
       </c>
       <c r="G5" t="n">
-        <v>-202917.1003</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4615.576</v>
       </c>
       <c r="G6" t="n">
-        <v>-207532.6763000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8.038600000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-207524.6377000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10843.9447</v>
       </c>
       <c r="G8" t="n">
-        <v>-218368.5824</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>154</v>
       </c>
       <c r="G9" t="n">
-        <v>-218368.5824</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>16581.8973</v>
       </c>
       <c r="G10" t="n">
-        <v>-234950.4797000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>17.2143</v>
       </c>
       <c r="G11" t="n">
-        <v>-234933.2654000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>8.038600000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>-234925.2268000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>15858.7315</v>
       </c>
       <c r="G13" t="n">
-        <v>-250783.9583000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3255.4832</v>
       </c>
       <c r="G14" t="n">
-        <v>-250783.9583000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>-250774.9583000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>45.4364</v>
       </c>
       <c r="G16" t="n">
-        <v>-250774.9583000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>19.7129</v>
       </c>
       <c r="G17" t="n">
-        <v>-250794.6712000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>40002.7585</v>
       </c>
       <c r="G18" t="n">
-        <v>-210791.9127000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>13758.2337</v>
       </c>
       <c r="G19" t="n">
-        <v>-224550.1464000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>32843.6663</v>
       </c>
       <c r="G20" t="n">
-        <v>-257393.8127000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>19373.3817</v>
       </c>
       <c r="G21" t="n">
-        <v>-276767.1944000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>39871.8719</v>
       </c>
       <c r="G22" t="n">
-        <v>-316639.0663000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>5355.981</v>
       </c>
       <c r="G23" t="n">
-        <v>-321995.0473000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2509.1598</v>
       </c>
       <c r="G24" t="n">
-        <v>-319485.8875000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>32843.6664</v>
       </c>
       <c r="G25" t="n">
-        <v>-352329.5539000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>54056</v>
       </c>
       <c r="G26" t="n">
-        <v>-406385.5539000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>22559.8678</v>
       </c>
       <c r="G27" t="n">
-        <v>-383825.6861</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>190</v>
       </c>
       <c r="G28" t="n">
-        <v>-383635.6861</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>10000.6822</v>
       </c>
       <c r="G29" t="n">
-        <v>-393636.3683</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,19 @@
         <v>30000</v>
       </c>
       <c r="G30" t="n">
-        <v>-393636.3683</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>60.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>60.2</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1317,21 @@
         <v>2776.8337</v>
       </c>
       <c r="G31" t="n">
-        <v>-390859.5346</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1353,23 @@
         <v>988</v>
       </c>
       <c r="G32" t="n">
-        <v>-391847.5346</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>60.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1391,15 @@
         <v>4028</v>
       </c>
       <c r="G33" t="n">
-        <v>-387819.5346</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1421,19 @@
         <v>18922.199</v>
       </c>
       <c r="G34" t="n">
-        <v>-387819.5346</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>61.03</v>
+      </c>
+      <c r="I34" t="n">
+        <v>61.03</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1455,21 @@
         <v>736</v>
       </c>
       <c r="G35" t="n">
-        <v>-387819.5346</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>61.03</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1491,21 @@
         <v>5954.1295</v>
       </c>
       <c r="G36" t="n">
-        <v>-381865.4051</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>61.03</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1527,15 @@
         <v>5055.597</v>
       </c>
       <c r="G37" t="n">
-        <v>-376809.8081</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1557,15 @@
         <v>7627.803</v>
       </c>
       <c r="G38" t="n">
-        <v>-376809.8081</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1587,15 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-376799.8081</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1617,15 @@
         <v>81.84099999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-376881.6491</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1647,15 @@
         <v>135.9960303896104</v>
       </c>
       <c r="G41" t="n">
-        <v>-376745.6530696104</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1677,15 @@
         <v>1297</v>
       </c>
       <c r="G42" t="n">
-        <v>-378042.6530696104</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1707,15 @@
         <v>2308.756</v>
       </c>
       <c r="G43" t="n">
-        <v>-378042.6530696104</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1737,15 @@
         <v>1290.108299948554</v>
       </c>
       <c r="G44" t="n">
-        <v>-376752.5447696619</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1767,15 @@
         <v>51</v>
       </c>
       <c r="G45" t="n">
-        <v>-376803.5447696619</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1797,15 @@
         <v>1240</v>
       </c>
       <c r="G46" t="n">
-        <v>-378043.5447696619</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1827,15 @@
         <v>8.877000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-378052.4217696618</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1857,15 @@
         <v>34.9859</v>
       </c>
       <c r="G48" t="n">
-        <v>-378017.4358696618</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1887,15 @@
         <v>6572.6393</v>
       </c>
       <c r="G49" t="n">
-        <v>-378017.4358696618</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1917,15 @@
         <v>955</v>
       </c>
       <c r="G50" t="n">
-        <v>-377062.4358696618</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1947,15 @@
         <v>630</v>
       </c>
       <c r="G51" t="n">
-        <v>-376432.4358696618</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1977,15 @@
         <v>3728.4775</v>
       </c>
       <c r="G52" t="n">
-        <v>-372703.9583696618</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2007,15 @@
         <v>25.737</v>
       </c>
       <c r="G53" t="n">
-        <v>-372703.9583696618</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2037,15 @@
         <v>8.8935</v>
       </c>
       <c r="G54" t="n">
-        <v>-372703.9583696618</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2067,15 @@
         <v>1541</v>
       </c>
       <c r="G55" t="n">
-        <v>-374244.9583696618</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2097,15 @@
         <v>84147.9951</v>
       </c>
       <c r="G56" t="n">
-        <v>-458392.9534696618</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2127,15 @@
         <v>166.6667</v>
       </c>
       <c r="G57" t="n">
-        <v>-458392.9534696618</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2157,15 @@
         <v>1181</v>
       </c>
       <c r="G58" t="n">
-        <v>-458392.9534696618</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2187,15 @@
         <v>10492.41063623794</v>
       </c>
       <c r="G59" t="n">
-        <v>-447900.5428334239</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2217,15 @@
         <v>801.4105</v>
       </c>
       <c r="G60" t="n">
-        <v>-447900.5428334239</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2247,15 @@
         <v>803.8586</v>
       </c>
       <c r="G61" t="n">
-        <v>-447900.5428334239</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2277,15 @@
         <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>-447911.5428334239</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2307,15 @@
         <v>8.1</v>
       </c>
       <c r="G63" t="n">
-        <v>-447903.4428334239</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2337,15 @@
         <v>1298.25</v>
       </c>
       <c r="G64" t="n">
-        <v>-449201.6928334239</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2367,15 @@
         <v>9</v>
       </c>
       <c r="G65" t="n">
-        <v>-449192.6928334239</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2397,15 @@
         <v>4698.0074</v>
       </c>
       <c r="G66" t="n">
-        <v>-444494.6854334239</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2427,15 @@
         <v>154981.9629</v>
       </c>
       <c r="G67" t="n">
-        <v>-599476.6483334239</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2457,15 @@
         <v>6269.083</v>
       </c>
       <c r="G68" t="n">
-        <v>-599476.6483334239</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2487,15 @@
         <v>2162.9261</v>
       </c>
       <c r="G69" t="n">
-        <v>-599476.6483334239</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2517,15 @@
         <v>1529.0665</v>
       </c>
       <c r="G70" t="n">
-        <v>-599476.6483334239</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2547,15 @@
         <v>777</v>
       </c>
       <c r="G71" t="n">
-        <v>-598699.6483334239</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2577,15 @@
         <v>9</v>
       </c>
       <c r="G72" t="n">
-        <v>-598690.6483334239</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2607,15 @@
         <v>436</v>
       </c>
       <c r="G73" t="n">
-        <v>-599126.6483334239</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2637,15 @@
         <v>2652</v>
       </c>
       <c r="G74" t="n">
-        <v>-599126.6483334239</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,22 +2667,15 @@
         <v>1508</v>
       </c>
       <c r="G75" t="n">
-        <v>-599126.6483334239</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>61</v>
-      </c>
-      <c r="J75" t="n">
-        <v>61</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2894,26 +2697,15 @@
         <v>1454.6753</v>
       </c>
       <c r="G76" t="n">
-        <v>-597671.9730334239</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>61</v>
-      </c>
-      <c r="J76" t="n">
-        <v>61</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2935,24 +2727,15 @@
         <v>1299</v>
       </c>
       <c r="G77" t="n">
-        <v>-598970.9730334239</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>61</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +2757,15 @@
         <v>1480</v>
       </c>
       <c r="G78" t="n">
-        <v>-598970.9730334239</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +2787,15 @@
         <v>225</v>
       </c>
       <c r="G79" t="n">
-        <v>-598970.9730334239</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,18 +2817,15 @@
         <v>1318</v>
       </c>
       <c r="G80" t="n">
-        <v>-598970.9730334239</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,22 +2847,15 @@
         <v>1187</v>
       </c>
       <c r="G81" t="n">
-        <v>-598970.9730334239</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3110,26 +2877,15 @@
         <v>202.1249</v>
       </c>
       <c r="G82" t="n">
-        <v>-598768.8481334238</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3151,24 +2907,15 @@
         <v>3897</v>
       </c>
       <c r="G83" t="n">
-        <v>-598768.8481334238</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3190,18 +2937,15 @@
         <v>28031.8539</v>
       </c>
       <c r="G84" t="n">
-        <v>-598768.8481334238</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3223,18 +2967,15 @@
         <v>606</v>
       </c>
       <c r="G85" t="n">
-        <v>-599374.8481334238</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3256,18 +2997,15 @@
         <v>1035</v>
       </c>
       <c r="G86" t="n">
-        <v>-598339.8481334238</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3289,24 +3027,15 @@
         <v>2008.118</v>
       </c>
       <c r="G87" t="n">
-        <v>-600347.9661334238</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>61.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3328,22 +3057,15 @@
         <v>4075.3158</v>
       </c>
       <c r="G88" t="n">
-        <v>-596272.6503334239</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3365,24 +3087,15 @@
         <v>4802.5993</v>
       </c>
       <c r="G89" t="n">
-        <v>-591470.0510334239</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3404,24 +3117,15 @@
         <v>17967.6439</v>
       </c>
       <c r="G90" t="n">
-        <v>-609437.6949334239</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>61.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3443,24 +3147,15 @@
         <v>684.9381</v>
       </c>
       <c r="G91" t="n">
-        <v>-608752.7568334239</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>61.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3482,24 +3177,15 @@
         <v>9.9254</v>
       </c>
       <c r="G92" t="n">
-        <v>-608752.7568334239</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>61.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3521,22 +3207,15 @@
         <v>4964.3884</v>
       </c>
       <c r="G93" t="n">
-        <v>-603788.3684334238</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3558,24 +3237,15 @@
         <v>15</v>
       </c>
       <c r="G94" t="n">
-        <v>-603773.3684334238</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>61.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3597,24 +3267,15 @@
         <v>5801.0887</v>
       </c>
       <c r="G95" t="n">
-        <v>-609574.4571334238</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>61.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3636,24 +3297,15 @@
         <v>817.8514</v>
       </c>
       <c r="G96" t="n">
-        <v>-610392.3085334238</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>61.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3675,24 +3327,15 @@
         <v>100.3125</v>
       </c>
       <c r="G97" t="n">
-        <v>-610291.9960334238</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>61.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3714,24 +3357,15 @@
         <v>817.8514</v>
       </c>
       <c r="G98" t="n">
-        <v>-611109.8474334239</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3753,24 +3387,15 @@
         <v>8.7707</v>
       </c>
       <c r="G99" t="n">
-        <v>-611101.0767334239</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>61.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3792,24 +3417,15 @@
         <v>1599.7284</v>
       </c>
       <c r="G100" t="n">
-        <v>-611101.0767334239</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3831,24 +3447,15 @@
         <v>11629.5754</v>
       </c>
       <c r="G101" t="n">
-        <v>-599471.5013334239</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>61.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3870,24 +3477,15 @@
         <v>4212.723263762058</v>
       </c>
       <c r="G102" t="n">
-        <v>-599471.5013334239</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>62.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3909,24 +3507,15 @@
         <v>3675.9477</v>
       </c>
       <c r="G103" t="n">
-        <v>-603147.4490334239</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>62.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3948,24 +3537,15 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-603137.4490334239</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3987,24 +3567,15 @@
         <v>4953.5799</v>
       </c>
       <c r="G105" t="n">
-        <v>-598183.8691334239</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>62.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4026,24 +3597,15 @@
         <v>7007.999579489633</v>
       </c>
       <c r="G106" t="n">
-        <v>-591175.8695539343</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>62.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4065,22 +3627,15 @@
         <v>1001.9892</v>
       </c>
       <c r="G107" t="n">
-        <v>-592177.8587539343</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4102,24 +3657,15 @@
         <v>5557.6128</v>
       </c>
       <c r="G108" t="n">
-        <v>-592177.8587539343</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>62.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4141,24 +3687,15 @@
         <v>2493.4086</v>
       </c>
       <c r="G109" t="n">
-        <v>-592177.8587539343</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>62.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4180,24 +3717,15 @@
         <v>40215.5511</v>
       </c>
       <c r="G110" t="n">
-        <v>-632393.4098539343</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>62.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4219,24 +3747,15 @@
         <v>114.5319</v>
       </c>
       <c r="G111" t="n">
-        <v>-632507.9417539343</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>62.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
